--- a/data/extracted_data/raw_round2/Farcy_2013_Fig_3.xlsx
+++ b/data/extracted_data/raw_round2/Farcy_2013_Fig_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781EF014-D005-2545-8694-F55C5FC19B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{781EF014-D005-2545-8694-F55C5FC19B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{410EAEC6-0331-A54F-B3DD-15E02F4A0C8C}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="7460" windowWidth="27640" windowHeight="16940" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>les granges</t>
   </si>
   <si>
-    <t>time</t>
+    <t>le marescle</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>day</t>
   </si>
   <si>
-    <t>le marescle</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,10 +416,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,7 +501,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>39279</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>39188</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>39204</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>39216</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>39231</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>39245</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>39251</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>39265</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>39279</v>

--- a/data/extracted_data/raw_round2/Farcy_2013_Fig_3.xlsx
+++ b/data/extracted_data/raw_round2/Farcy_2013_Fig_3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{781EF014-D005-2545-8694-F55C5FC19B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{410EAEC6-0331-A54F-B3DD-15E02F4A0C8C}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{781EF014-D005-2545-8694-F55C5FC19B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA0F812-302C-7044-9758-A6BC76E5DDE4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
-  <si>
-    <t>treatment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>les granges</t>
   </si>
@@ -51,6 +48,21 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -86,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +117,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,198 +420,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8179F2-E480-0147-A8CF-3F1CC001143B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
         <v>39188</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <f>C2-$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>39204</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D18" si="0">C3-$C$2</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>0.229955498182559</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
         <v>39216</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>0.39422495498861898</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <v>39231</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E5">
         <v>0.25805618779087502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>39245</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E6">
         <v>1.4943778238271499</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>39251</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E7">
         <v>1.5209566192207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39279</v>
+      </c>
+      <c r="D8" s="2">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>0.20926045453001299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>39265</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E9">
         <v>1.2213201073478901</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
         <v>39279</v>
       </c>
-      <c r="C9">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E10">
         <v>0.20926045453001299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
         <v>39188</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
         <v>39204</v>
       </c>
-      <c r="C11">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E12">
         <v>0.16459557699493799</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
         <v>39216</v>
       </c>
-      <c r="C12">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E13">
         <v>0.224289159900805</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
         <v>39231</v>
       </c>
-      <c r="C13">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E14">
         <v>0.21885382341950599</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
         <v>39245</v>
       </c>
-      <c r="C14">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E15">
         <v>0.74928831062947998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>39251</v>
       </c>
-      <c r="C15">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E16">
         <v>1.3379488398953701</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
         <v>39265</v>
       </c>
-      <c r="C16">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E17">
         <v>0.37164113190882198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
         <v>39279</v>
       </c>
-      <c r="C17">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E18">
         <v>0.20926045453001299</v>
       </c>
     </row>
